--- a/sorensenLab/relatedToDlg2/design20210809_ewsGeneOrfCloning/ewsFusionOrfOligoDesigns.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210809_ewsGeneOrfCloning/ewsFusionOrfOligoDesigns.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,102 @@
   </si>
   <si>
     <t>GAATTATCTAGATTAGTAGTAAGTGCCCAGATGAGAAG</t>
+  </si>
+  <si>
+    <t>ewsfli1Puc19_rev</t>
+  </si>
+  <si>
+    <t>ewsfli1Puc19_fwd</t>
+  </si>
+  <si>
+    <t>ttgtaaaacgacggccagtgCTAGTAGTAGCTGCCTAAGTG</t>
+  </si>
+  <si>
+    <t>ews-fli1 to clone into puc19</t>
+  </si>
+  <si>
+    <t>cctgcaggtcgactctagaggccaccATGGCGTCCACGGATTAC</t>
+  </si>
+  <si>
+    <t>ews_nDTAG_fwd</t>
+  </si>
+  <si>
+    <t>ews_nDTAG_rev</t>
+  </si>
+  <si>
+    <t>ews_nFLAG_fwd</t>
+  </si>
+  <si>
+    <t>ews_nFLAG_rev</t>
+  </si>
+  <si>
+    <t>ews_fli1_fwd</t>
+  </si>
+  <si>
+    <t>tcgctagcgctaccggactcagatcgccaccATGGGAGTGCAGGTGGAAAC</t>
+  </si>
+  <si>
+    <t>gatccttgtagtcGCCGCCTTCCAGTTTTAG</t>
+  </si>
+  <si>
+    <t>ctggaaggcggcGACTACAAGGATCATGATG</t>
+  </si>
+  <si>
+    <t>cgtggacgccatCTTGTCGTCATCATCCTTATAATC</t>
+  </si>
+  <si>
+    <t>tgatgacgacaagATGGCGTCCACGGATTAC</t>
+  </si>
+  <si>
+    <t>cgcctcccctacccggtagaattatCTAGTAGTAGCTGCCTAAGTG</t>
+  </si>
+  <si>
+    <t>ews-fli1 nDTAG</t>
+  </si>
+  <si>
+    <t>CACCGGCCTCACGGCGTGCAGGAAG</t>
+  </si>
+  <si>
+    <t>AAACCTTCCTGCACGCCGTGAGGCC</t>
+  </si>
+  <si>
+    <t>fli1SgrnaEx9_fwd</t>
+  </si>
+  <si>
+    <t>fli1SgrnaEx9_rev</t>
+  </si>
+  <si>
+    <t>clone into lenticrispr</t>
+  </si>
+  <si>
+    <t>TCCAAGGCAAGCAGAAAGGCAA</t>
+  </si>
+  <si>
+    <t>ATGGACGACTCGGTCGGATGT</t>
+  </si>
+  <si>
+    <t>fli1Ex9SgVal_fwd1</t>
+  </si>
+  <si>
+    <t>fli1Ex9SgVal_rev1</t>
+  </si>
+  <si>
+    <t>fli1Ex9SgVal_fwd2</t>
+  </si>
+  <si>
+    <t>fli1Ex9SgVal_rev2</t>
+  </si>
+  <si>
+    <t>GGCTTGTCAAGTCGATCCCA</t>
+  </si>
+  <si>
+    <t>GGCAATGCCGTGGAAGTCAAA</t>
+  </si>
+  <si>
+    <t>validation of fli1 exon 9 sgrna cut</t>
+  </si>
+  <si>
+    <t>ews_fli1_rev</t>
   </si>
 </sst>
 </file>
@@ -416,16 +512,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43" customWidth="1"/>
@@ -439,10 +535,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -459,11 +555,11 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3">
         <f>LEN(B2)</f>
         <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -474,11 +570,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
+        <f t="shared" ref="C3:C23" si="0">LEN(B3)</f>
+        <v>26</v>
+      </c>
+      <c r="D3" s="3">
         <v>56</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D8" si="0">LEN(B3)</f>
-        <v>26</v>
       </c>
       <c r="E3" s="3">
         <v>1400</v>
@@ -495,11 +591,11 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="3">
         <v>56</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>1400</v>
@@ -516,11 +612,11 @@
         <v>12</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="3">
         <v>57</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -531,11 +627,11 @@
         <v>18</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="3">
         <v>56</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
       </c>
       <c r="E7" s="3">
         <v>1400</v>
@@ -549,18 +645,243 @@
         <v>19</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D8" s="3">
         <v>56</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
       </c>
       <c r="E8" s="3">
         <v>1400</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="3">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1431</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D12" s="3">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3">
+        <v>330</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="3">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1431</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3">
+        <v>488</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
+        <v>68</v>
+      </c>
+      <c r="E22" s="3">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sorensenLab/relatedToDlg2/design20210809_ewsGeneOrfCloning/ewsFusionOrfOligoDesigns.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210809_ewsGeneOrfCloning/ewsFusionOrfOligoDesigns.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -62,30 +62,12 @@
     <t>Just EWS-ERG, no other added parts</t>
   </si>
   <si>
-    <t>CAGATCTCGAGGCCACCATGGCGTCCACGGATTACAG</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
     <t>ProductSize</t>
   </si>
   <si>
-    <t>ewsr1LvxFwd1</t>
-  </si>
-  <si>
-    <t>fli1LvxRev1</t>
-  </si>
-  <si>
-    <t>ergLvxRev1</t>
-  </si>
-  <si>
-    <t>GAATTATCTAGACTAGTAGTAGCTGCCTAAGTGTGAAG</t>
-  </si>
-  <si>
-    <t>GAATTATCTAGATTAGTAGTAAGTGCCCAGATGAGAAG</t>
-  </si>
-  <si>
     <t>ewsfli1Puc19_rev</t>
   </si>
   <si>
@@ -180,6 +162,9 @@
   </si>
   <si>
     <t>ews_fli1_rev</t>
+  </si>
+  <si>
+    <t>CTAGTAGTAGCTGCCTAAGTGTGAAGGC</t>
   </si>
 </sst>
 </file>
@@ -512,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -558,9 +543,6 @@
         <f>LEN(B2)</f>
         <v>20</v>
       </c>
-      <c r="D2" s="3">
-        <v>57</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -570,11 +552,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C23" si="0">LEN(B3)</f>
+        <f t="shared" ref="C3:C22" si="0">LEN(B3)</f>
         <v>26</v>
       </c>
       <c r="D3" s="3">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3">
         <v>1400</v>
@@ -595,7 +577,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="3">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3">
         <v>1400</v>
@@ -609,50 +591,65 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1431</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D7" s="3">
-        <v>56</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1400</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3">
-        <v>1400</v>
+        <v>330</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,224 +657,179 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3">
-        <v>1431</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="3">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1431</v>
+      </c>
+      <c r="F12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D12" s="3">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3">
-        <v>330</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D14" s="3">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3">
-        <v>1431</v>
+        <v>488</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3">
+        <v>411</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D20" s="3">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3">
-        <v>488</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D22" s="3">
-        <v>68</v>
-      </c>
-      <c r="E22" s="3">
-        <v>411</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
